--- a/medicine/Psychotrope/Caffè_Pedrocchi/Caffè_Pedrocchi.xlsx
+++ b/medicine/Psychotrope/Caffè_Pedrocchi/Caffè_Pedrocchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Pedrocchi</t>
+          <t>Caffè_Pedrocchi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Caffè Pedrocchi est un célèbre café situé au centre de la ville de Padoue, en Vénétie (Italie).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Pedrocchi</t>
+          <t>Caffè_Pedrocchi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aménagé dans un édifice néoclassique du XIXe siècle, la décoration de ses salles est confiée entre 1826 et 1831 à  l'architecte Giuseppe Jappelli. À l'intérieur, une grande salle, nommée Rosa, occupe tout le rez-de-chaussée. Au premier étage, à l'initiative de l'architecte imaginatif et créatif, les huit salles sont décorées chacune dans un style différent (égyptien, roman, Cinquecento, étrusque, etc.).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Pedrocchi</t>
+          <t>Caffè_Pedrocchi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Éléments d'histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café est connu pour avoir été le théâtre, en 1848, des émeutes estudiantines qui furent le point de départ de la révolte contre les Autrichiens.
 Il a accueilli, aussi, de nombreux écrivains parmi lesquels Stendhal, lord Byron, Dario Fo... Stendhal parlait de lui comme « l'excellent restaurateur Pedrocchi, le meilleur d'Italie ».
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Pedrocchi</t>
+          <t>Caffè_Pedrocchi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À déguster : son fameux café aux arômes de chocolat à la menthe.
 			La terrasse-atrium.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Pedrocchi</t>
+          <t>Caffè_Pedrocchi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Pedrocchi Café » (voir la liste des auteurs).
  Alimentation et gastronomie   Portail du café   Portail de l’Italie   Portail de la Vénétie                  </t>
